--- a/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2012</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -6,68</t>
+          <t>-12,01; -6,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -3,75</t>
+          <t>-9,7; -3,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; -6,68</t>
+          <t>-12,01; -6,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,46; -3,75</t>
+          <t>-9,7; -3,73</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,29; -56,56</t>
+          <t>-82,8; -56,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,05; -31,73</t>
+          <t>-66,79; -30,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,29; -56,56</t>
+          <t>-82,8; -56,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-67,05; -31,73</t>
+          <t>-66,79; -30,91</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -8,25</t>
+          <t>-14,43; -8,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,03</t>
+          <t>-6,7; 0,14</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,19; -8,25</t>
+          <t>-14,43; -8,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,03</t>
+          <t>-6,7; 0,14</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -34,76</t>
+          <t>-52,66; -34,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,77; -0,29</t>
+          <t>-24,44; 0,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,38; -34,76</t>
+          <t>-52,66; -34,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,77; -0,29</t>
+          <t>-24,44; 0,65</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -2,33</t>
+          <t>-15,93; -2,09</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 9,91</t>
+          <t>-3,79; 9,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,91; -2,33</t>
+          <t>-15,93; -2,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 9,91</t>
+          <t>-3,79; 9,86</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,99; -5,37</t>
+          <t>-32,98; -4,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 24,1</t>
+          <t>-7,44; 23,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-31,99; -5,37</t>
+          <t>-32,98; -4,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 24,1</t>
+          <t>-7,44; 23,69</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -6,41</t>
+          <t>-10,77; -6,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,39</t>
+          <t>-2,63; 2,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,02; -6,41</t>
+          <t>-10,77; -6,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 2,39</t>
+          <t>-2,63; 2,21</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-43,59; -28,16</t>
+          <t>-42,39; -27,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 10,65</t>
+          <t>-10,42; 9,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,59; -28,16</t>
+          <t>-42,39; -27,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,07; 10,65</t>
+          <t>-10,42; 9,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -6,56</t>
+          <t>-11,68; -6,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -3,73</t>
+          <t>-9,44; -3,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,01; -6,56</t>
+          <t>-11,68; -6,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,7; -3,73</t>
+          <t>-9,44; -3,51</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,8; -56,9</t>
+          <t>-82,08; -55,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,79; -30,91</t>
+          <t>-65,62; -30,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,8; -56,9</t>
+          <t>-82,08; -55,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-66,79; -30,91</t>
+          <t>-65,62; -30,44</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,36</t>
+          <t>-14,37; -8,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,14</t>
+          <t>-6,99; -0,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; -8,36</t>
+          <t>-14,37; -8,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 0,14</t>
+          <t>-6,99; -0,03</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,66; -34,97</t>
+          <t>-52,56; -33,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 0,65</t>
+          <t>-25,31; -0,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,66; -34,97</t>
+          <t>-52,56; -33,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-24,44; 0,65</t>
+          <t>-25,31; -0,07</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -2,09</t>
+          <t>-15,89; -2,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,86</t>
+          <t>-3,72; 9,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; -2,09</t>
+          <t>-15,89; -2,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,86</t>
+          <t>-3,72; 9,96</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -4,99</t>
+          <t>-32,77; -5,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 23,69</t>
+          <t>-7,47; 24,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,98; -4,99</t>
+          <t>-32,77; -5,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 23,69</t>
+          <t>-7,47; 24,36</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -6,24</t>
+          <t>-10,67; -6,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,21</t>
+          <t>-2,5; 2,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,77; -6,24</t>
+          <t>-10,67; -6,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 2,21</t>
+          <t>-2,5; 2,17</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -27,6</t>
+          <t>-42,71; -27,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 9,7</t>
+          <t>-10,1; 9,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -27,6</t>
+          <t>-42,71; -27,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 9,7</t>
+          <t>-10,1; 9,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,6</t>
+          <t>-6,47</t>
         </is>
       </c>
     </row>
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -3,51</t>
+          <t>-9,35; -3,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,44; -3,51</t>
+          <t>-9,35; -3,37</t>
         </is>
       </c>
     </row>
@@ -692,7 +692,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,87%</t>
+          <t>-50,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -702,7 +702,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-51,87%</t>
+          <t>-50,84%</t>
         </is>
       </c>
     </row>
@@ -730,7 +730,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -30,44</t>
+          <t>-64,76; -29,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,62; -30,44</t>
+          <t>-64,76; -29,88</t>
         </is>
       </c>
     </row>
@@ -772,7 +772,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>-4,76</t>
         </is>
       </c>
     </row>
@@ -810,7 +810,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -0,03</t>
+          <t>-9,21; -1,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,99; -0,03</t>
+          <t>-9,21; -1,03</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>-18,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-13,53%</t>
+          <t>-18,7%</t>
         </is>
       </c>
     </row>
@@ -886,7 +886,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,31; -0,07</t>
+          <t>-34,04; -4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,31; -0,07</t>
+          <t>-34,04; -4,03</t>
         </is>
       </c>
     </row>
@@ -928,7 +928,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,99</t>
+          <t>2,94</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,96</t>
+          <t>-3,99; 9,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,96</t>
+          <t>-3,99; 9,89</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -1042,7 +1042,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 24,36</t>
+          <t>-7,68; 24,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 24,36</t>
+          <t>-7,68; 24,02</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,76</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,17</t>
+          <t>-3,75; 1,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 2,17</t>
+          <t>-3,75; 1,8</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-3,16%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,31%</t>
+          <t>-3,16%</t>
         </is>
       </c>
     </row>
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 9,48</t>
+          <t>-14,96; 7,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 9,48</t>
+          <t>-14,96; 7,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
@@ -649,22 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -6,38</t>
+          <t>-11,78; -6,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -3,37</t>
+          <t>-9,27; -3,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -6,38</t>
+          <t>-11,78; -6,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,35; -3,37</t>
+          <t>-9,27; -3,04</t>
         </is>
       </c>
     </row>
@@ -725,22 +725,22 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-82,08; -55,86</t>
+          <t>-82,61; -54,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-64,76; -29,88</t>
+          <t>-65,81; -25,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-82,08; -55,86</t>
+          <t>-82,61; -54,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,76; -29,88</t>
+          <t>-65,81; -25,61</t>
         </is>
       </c>
     </row>
@@ -805,22 +805,22 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -8,05</t>
+          <t>-14,3; -8,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -1,03</t>
+          <t>-9,09; -1,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,37; -8,05</t>
+          <t>-14,3; -8,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,21; -1,03</t>
+          <t>-9,09; -1,02</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -33,84</t>
+          <t>-51,96; -34,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -4,03</t>
+          <t>-34,55; -5,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,56; -33,84</t>
+          <t>-51,96; -34,04</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,04; -4,03</t>
+          <t>-34,55; -5,0</t>
         </is>
       </c>
     </row>
@@ -961,22 +961,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -2,22</t>
+          <t>-15,33; -1,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,89</t>
+          <t>-5,14; 8,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,89; -2,22</t>
+          <t>-15,33; -1,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 9,89</t>
+          <t>-5,14; 8,91</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-32,77; -5,13</t>
+          <t>-31,48; -3,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 24,02</t>
+          <t>-10,66; 21,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,77; -5,13</t>
+          <t>-31,48; -3,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 24,02</t>
+          <t>-10,66; 21,17</t>
         </is>
       </c>
     </row>
@@ -1117,22 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,16</t>
+          <t>-10,51; -6,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,8</t>
+          <t>-4,01; 1,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-10,67; -6,16</t>
+          <t>-10,51; -6,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 1,8</t>
+          <t>-4,01; 1,93</t>
         </is>
       </c>
     </row>
@@ -1193,22 +1193,22 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; -27,52</t>
+          <t>-41,92; -27,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 7,8</t>
+          <t>-15,86; 8,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-42,71; -27,52</t>
+          <t>-41,92; -27,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 7,8</t>
+          <t>-15,86; 8,43</t>
         </is>
       </c>
     </row>
